--- a/Result_sheet1.xlsx
+++ b/Result_sheet1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -86,7 +86,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="distributed" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
@@ -97,7 +97,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="distributed" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
@@ -107,8 +107,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-7684305312580275936" xfId="1" hidden="0"/>
-    <cellStyle name="4305851342610746741" xfId="2" hidden="0"/>
+    <cellStyle name="-1794133924098789331" xfId="1" hidden="0"/>
+    <cellStyle name="-220840077446006571" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -406,7 +406,10 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -416,10 +419,10 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,28 +479,28 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-21</v>
+        <v>-6</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>22</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -507,28 +510,28 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +541,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>-7</v>
@@ -547,19 +550,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>19</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -569,28 +572,28 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>-12</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -600,28 +603,28 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -631,28 +634,28 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-7</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>18</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -662,28 +665,28 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="D8" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>-17</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>18</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -693,28 +696,28 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>-12</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -724,7 +727,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>-12</v>
@@ -733,19 +736,19 @@
         <v>41</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -755,7 +758,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>-12</v>
@@ -764,19 +767,19 @@
         <v>32</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -786,7 +789,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>-12</v>
@@ -795,19 +798,19 @@
         <v>54</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>8</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -835,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -848,7 +851,7 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>-7</v>
@@ -857,19 +860,19 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -894,13 +897,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -910,7 +913,7 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>-12</v>
@@ -919,19 +922,19 @@
         <v>54</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -941,7 +944,7 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>-12</v>
@@ -950,19 +953,19 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -972,7 +975,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>-12</v>
@@ -981,19 +984,19 @@
         <v>44</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1003,7 +1006,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>-12</v>
@@ -1012,19 +1015,19 @@
         <v>3</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-17</v>
+        <v>-6</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -1040,22 +1043,22 @@
         <v>-12</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -1065,28 +1068,28 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>-12</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1096,7 +1099,7 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>-7</v>
@@ -1105,19 +1108,19 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -1127,7 +1130,7 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>-7</v>
@@ -1136,19 +1139,19 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1158,7 +1161,7 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>-12</v>
@@ -1167,19 +1170,19 @@
         <v>32</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1189,28 +1192,28 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1220,7 +1223,7 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>-2</v>
@@ -1229,19 +1232,19 @@
         <v>23</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -1251,7 +1254,7 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>-12</v>
@@ -1260,19 +1263,19 @@
         <v>17</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1282,7 +1285,7 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>-8</v>
@@ -1291,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1313,28 +1316,28 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>-7</v>
       </c>
       <c r="D29" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>44</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>33</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>16</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -1344,16 +1347,16 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>1</v>
@@ -1362,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1375,28 +1378,28 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>8</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -1406,7 +1409,7 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>-12</v>
@@ -1415,19 +1418,19 @@
         <v>21</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1437,7 +1440,7 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>-8</v>
@@ -1446,19 +1449,19 @@
         <v>34</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1468,28 +1471,28 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>19</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1499,7 +1502,7 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>-12</v>
@@ -1508,19 +1511,19 @@
         <v>44</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1530,7 +1533,7 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>-7</v>
@@ -1539,19 +1542,19 @@
         <v>6</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -1561,28 +1564,28 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1592,7 +1595,7 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>-12</v>
@@ -1601,19 +1604,19 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-16</v>
+        <v>-8</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>24</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
@@ -1623,7 +1626,7 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>-7</v>
@@ -1632,19 +1635,19 @@
         <v>15</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>13</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -1654,28 +1657,28 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -1685,28 +1688,28 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -1716,7 +1719,7 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>-12</v>
@@ -1725,19 +1728,19 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -1747,28 +1750,28 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>21</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>20</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -1778,28 +1781,28 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1809,7 +1812,7 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>-7</v>
@@ -1818,19 +1821,19 @@
         <v>40</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1840,28 +1843,28 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -1871,7 +1874,7 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>-7</v>
@@ -1880,19 +1883,19 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
@@ -1902,7 +1905,7 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>-3</v>
@@ -1911,19 +1914,19 @@
         <v>16</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -1933,28 +1936,28 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
@@ -1964,7 +1967,7 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>-12</v>
@@ -1973,19 +1976,19 @@
         <v>67</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>7</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1995,28 +1998,28 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -2041,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2057,25 +2060,25 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>-12</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>3</v>
@@ -2088,28 +2091,28 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>14</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
@@ -2119,28 +2122,28 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -2150,7 +2153,7 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>-8</v>
@@ -2159,19 +2162,19 @@
         <v>34</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2181,28 +2184,28 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
@@ -2212,28 +2215,28 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -2243,28 +2246,28 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>17</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -2274,28 +2277,28 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>-11</v>
+        <v>29</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>15</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -2305,7 +2308,7 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>-7</v>
@@ -2314,19 +2317,19 @@
         <v>2</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -2336,28 +2339,28 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>5</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -2367,7 +2370,7 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>-12</v>
@@ -2376,19 +2379,19 @@
         <v>36</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -2398,28 +2401,28 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>21</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -2429,28 +2432,28 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>-12</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -2460,7 +2463,7 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>-12</v>
@@ -2469,16 +2472,16 @@
         <v>37</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>24</v>
@@ -2491,28 +2494,28 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>23</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
@@ -2522,28 +2525,28 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>-12</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>5</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -2553,28 +2556,28 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>16</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
@@ -2584,28 +2587,28 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>-26</v>
+        <v>15</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>23</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -2615,28 +2618,28 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>-21</v>
+        <v>8</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>28</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
@@ -2646,16 +2649,16 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>-36</v>
+        <v>-1</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>28</v>
@@ -2677,28 +2680,28 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>9</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
@@ -2708,28 +2711,28 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
@@ -2754,13 +2757,13 @@
         <v>6</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -2776,22 +2779,22 @@
         <v>-12</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -2801,7 +2804,7 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>-12</v>
@@ -2810,19 +2813,19 @@
         <v>29</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
@@ -2832,7 +2835,7 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>-7</v>
@@ -2841,19 +2844,19 @@
         <v>3</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -2863,28 +2866,28 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>9</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
@@ -2894,28 +2897,28 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>11</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -2925,28 +2928,28 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>-17</v>
+        <v>-4</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>18</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
@@ -2956,25 +2959,25 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>-12</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I82" s="2" t="n">
         <v>18</v>
@@ -2987,28 +2990,28 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -3018,7 +3021,7 @@
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>-12</v>
@@ -3027,19 +3030,19 @@
         <v>33</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -3049,7 +3052,7 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>-12</v>
@@ -3058,19 +3061,19 @@
         <v>24</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -3098,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
